--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H2">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I2">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J2">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N2">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q2">
-        <v>2.048125284003556</v>
+        <v>6.153031672324667</v>
       </c>
       <c r="R2">
-        <v>18.433127556032</v>
+        <v>55.377285050922</v>
       </c>
       <c r="S2">
-        <v>0.007540455495042342</v>
+        <v>0.02903194289773297</v>
       </c>
       <c r="T2">
-        <v>0.007540455495042343</v>
+        <v>0.02903194289773298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H3">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I3">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J3">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q3">
-        <v>25.64348352742867</v>
+        <v>29.423339391466</v>
       </c>
       <c r="R3">
-        <v>230.791351746858</v>
+        <v>264.810054523194</v>
       </c>
       <c r="S3">
-        <v>0.09441001865786819</v>
+        <v>0.1388285896391182</v>
       </c>
       <c r="T3">
-        <v>0.0944100186578682</v>
+        <v>0.1388285896391182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.008382</v>
+      </c>
+      <c r="H4">
+        <v>3.025146</v>
+      </c>
+      <c r="I4">
+        <v>0.2654379136902495</v>
+      </c>
+      <c r="J4">
+        <v>0.2654379136902495</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.8788406666666667</v>
-      </c>
-      <c r="H4">
-        <v>2.636522</v>
-      </c>
-      <c r="I4">
-        <v>0.2062701535172269</v>
-      </c>
-      <c r="J4">
-        <v>0.2062701535172269</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N4">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q4">
-        <v>0.3460780802328889</v>
+        <v>0.147873170008</v>
       </c>
       <c r="R4">
-        <v>3.114702722096</v>
+        <v>1.330858530072</v>
       </c>
       <c r="S4">
-        <v>0.001274134147059952</v>
+        <v>0.0006977122264929065</v>
       </c>
       <c r="T4">
-        <v>0.001274134147059952</v>
+        <v>0.0006977122264929069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H5">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I5">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J5">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N5">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q5">
-        <v>19.04945031305245</v>
+        <v>15.14877119257266</v>
       </c>
       <c r="R5">
-        <v>171.445052817472</v>
+        <v>136.338940733154</v>
       </c>
       <c r="S5">
-        <v>0.0701331766237514</v>
+        <v>0.07147667745832233</v>
       </c>
       <c r="T5">
-        <v>0.0701331766237514</v>
+        <v>0.07147667745832235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H6">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I6">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J6">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N6">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q6">
-        <v>8.567867460304445</v>
+        <v>5.333232232054666</v>
       </c>
       <c r="R6">
-        <v>77.11080714274</v>
+        <v>47.999090088492</v>
       </c>
       <c r="S6">
-        <v>0.03154378483407998</v>
+        <v>0.02516387073347575</v>
       </c>
       <c r="T6">
-        <v>0.03154378483407998</v>
+        <v>0.02516387073347576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H7">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I7">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J7">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N7">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q7">
-        <v>0.3717323181335556</v>
+        <v>0.05067926255599999</v>
       </c>
       <c r="R7">
-        <v>3.345590863202</v>
+        <v>0.456113363004</v>
       </c>
       <c r="S7">
-        <v>0.001368583759425007</v>
+        <v>0.0002391207351073382</v>
       </c>
       <c r="T7">
-        <v>0.001368583759425007</v>
+        <v>0.0002391207351073382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H8">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I8">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J8">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N8">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O8">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P8">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q8">
-        <v>4.637448301368888</v>
+        <v>12.14218296733778</v>
       </c>
       <c r="R8">
-        <v>41.73703471232</v>
+        <v>109.27964670604</v>
       </c>
       <c r="S8">
-        <v>0.01707340503051526</v>
+        <v>0.05729064651935956</v>
       </c>
       <c r="T8">
-        <v>0.01707340503051527</v>
+        <v>0.05729064651935956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H9">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I9">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J9">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P9">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q9">
-        <v>58.06301501878666</v>
+        <v>58.06301501878668</v>
       </c>
       <c r="R9">
-        <v>522.56713516908</v>
+        <v>522.5671351690801</v>
       </c>
       <c r="S9">
-        <v>0.2137669917346598</v>
+        <v>0.2739596066240891</v>
       </c>
       <c r="T9">
-        <v>0.2137669917346599</v>
+        <v>0.2739596066240891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H10">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I10">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J10">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N10">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O10">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P10">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q10">
-        <v>0.7836040196622222</v>
+        <v>0.2918078732266667</v>
       </c>
       <c r="R10">
-        <v>7.05243617696</v>
+        <v>2.62627085904</v>
       </c>
       <c r="S10">
-        <v>0.002884946190620345</v>
+        <v>0.001376841525248446</v>
       </c>
       <c r="T10">
-        <v>0.002884946190620346</v>
+        <v>0.001376841525248446</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H11">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I11">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J11">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N11">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O11">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P11">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q11">
-        <v>43.13253768519111</v>
+        <v>29.89406870403111</v>
       </c>
       <c r="R11">
-        <v>388.19283916672</v>
+        <v>269.04661833628</v>
       </c>
       <c r="S11">
-        <v>0.1587983817902301</v>
+        <v>0.1410496389121371</v>
       </c>
       <c r="T11">
-        <v>0.1587983817902302</v>
+        <v>0.1410496389121372</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H12">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I12">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J12">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N12">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q12">
-        <v>19.39971285471111</v>
+        <v>10.52441869593778</v>
       </c>
       <c r="R12">
-        <v>174.5974156924</v>
+        <v>94.71976826344002</v>
       </c>
       <c r="S12">
-        <v>0.07142271644223107</v>
+        <v>0.04965752475915043</v>
       </c>
       <c r="T12">
-        <v>0.07142271644223107</v>
+        <v>0.04965752475915043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H13">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I13">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J13">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N13">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O13">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P13">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q13">
-        <v>0.8416913851688888</v>
+        <v>0.1000087292533333</v>
       </c>
       <c r="R13">
-        <v>7.575222466519999</v>
+        <v>0.90007856328</v>
       </c>
       <c r="S13">
-        <v>0.003098802832031992</v>
+        <v>0.0004718727078907858</v>
       </c>
       <c r="T13">
-        <v>0.003098802832031993</v>
+        <v>0.0004718727078907858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H14">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I14">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J14">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N14">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O14">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P14">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q14">
-        <v>0.3397094092408889</v>
+        <v>1.217008892445333</v>
       </c>
       <c r="R14">
-        <v>3.057384683168</v>
+        <v>10.953080032008</v>
       </c>
       <c r="S14">
-        <v>0.001250687007105763</v>
+        <v>0.005742231562113411</v>
       </c>
       <c r="T14">
-        <v>0.001250687007105763</v>
+        <v>0.005742231562113412</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H15">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I15">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J15">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>29.178763</v>
       </c>
       <c r="N15">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O15">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P15">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q15">
-        <v>4.253320198729666</v>
+        <v>5.819645922824001</v>
       </c>
       <c r="R15">
-        <v>38.279881788567</v>
+        <v>52.37681330541601</v>
       </c>
       <c r="S15">
-        <v>0.01565918448211004</v>
+        <v>0.02745892384666014</v>
       </c>
       <c r="T15">
-        <v>0.01565918448211004</v>
+        <v>0.02745892384666014</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H16">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I16">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J16">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N16">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O16">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P16">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q16">
-        <v>0.05740175227822222</v>
+        <v>0.029247852512</v>
       </c>
       <c r="R16">
-        <v>0.516615770504</v>
+        <v>0.263230672608</v>
       </c>
       <c r="S16">
-        <v>0.0002113324618234773</v>
+        <v>0.000138000587227417</v>
       </c>
       <c r="T16">
-        <v>0.0002113324618234773</v>
+        <v>0.000138000587227417</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H17">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I17">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J17">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N17">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O17">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P17">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q17">
-        <v>3.159610187303111</v>
+        <v>2.996277320317333</v>
       </c>
       <c r="R17">
-        <v>28.436491685728</v>
+        <v>26.966495882856</v>
       </c>
       <c r="S17">
-        <v>0.01163254034561303</v>
+        <v>0.01413738083951069</v>
       </c>
       <c r="T17">
-        <v>0.01163254034561303</v>
+        <v>0.0141373808395107</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H18">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I18">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J18">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N18">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q18">
-        <v>1.421097242501111</v>
+        <v>1.054860660165333</v>
       </c>
       <c r="R18">
-        <v>12.78987518251</v>
+        <v>9.493745941487999</v>
       </c>
       <c r="S18">
-        <v>0.005231965346504857</v>
+        <v>0.004977165092247057</v>
       </c>
       <c r="T18">
-        <v>0.005231965346504857</v>
+        <v>0.004977165092247058</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H19">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I19">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J19">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N19">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O19">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P19">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q19">
-        <v>0.06165685623588888</v>
+        <v>0.010023857584</v>
       </c>
       <c r="R19">
-        <v>0.5549117061229999</v>
+        <v>0.090214718256</v>
       </c>
       <c r="S19">
-        <v>0.0002269982134599423</v>
+        <v>4.729571965355231E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002269982134599423</v>
+        <v>4.729571965355232E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H20">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I20">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J20">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N20">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O20">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P20">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q20">
-        <v>2.123988796231111</v>
+        <v>2.457939210665889</v>
       </c>
       <c r="R20">
-        <v>19.11589916608</v>
+        <v>22.121452895993</v>
       </c>
       <c r="S20">
-        <v>0.007819757470423105</v>
+        <v>0.01159733195119261</v>
       </c>
       <c r="T20">
-        <v>0.007819757470423107</v>
+        <v>0.01159733195119261</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H21">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I21">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J21">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>29.178763</v>
       </c>
       <c r="N21">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O21">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P21">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q21">
-        <v>26.59333007311333</v>
+        <v>11.75368232286233</v>
       </c>
       <c r="R21">
-        <v>239.33997065802</v>
+        <v>105.783140905761</v>
       </c>
       <c r="S21">
-        <v>0.09790700961872119</v>
+        <v>0.05545757802129309</v>
       </c>
       <c r="T21">
-        <v>0.0979070096187212</v>
+        <v>0.0554575780212931</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H22">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I22">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J22">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N22">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O22">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P22">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q22">
-        <v>0.3588969731377777</v>
+        <v>0.05907059838533332</v>
       </c>
       <c r="R22">
-        <v>3.23007275824</v>
+        <v>0.5316353854679999</v>
       </c>
       <c r="S22">
-        <v>0.001321328667922505</v>
+        <v>0.0002787137025429934</v>
       </c>
       <c r="T22">
-        <v>0.001321328667922505</v>
+        <v>0.0002787137025429935</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H23">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I23">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J23">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N23">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O23">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P23">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q23">
-        <v>19.75505080440889</v>
+        <v>6.051449218944554</v>
       </c>
       <c r="R23">
-        <v>177.79545723968</v>
+        <v>54.46304297050099</v>
       </c>
       <c r="S23">
-        <v>0.0727309420748731</v>
+        <v>0.02855264486336598</v>
       </c>
       <c r="T23">
-        <v>0.07273094207487311</v>
+        <v>0.02855264486336599</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H24">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I24">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J24">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N24">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O24">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P24">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q24">
-        <v>8.885225252288889</v>
+        <v>2.130455573910889</v>
       </c>
       <c r="R24">
-        <v>79.96702727059998</v>
+        <v>19.174100165198</v>
       </c>
       <c r="S24">
-        <v>0.03271218128187241</v>
+        <v>0.01005216092843057</v>
       </c>
       <c r="T24">
-        <v>0.03271218128187241</v>
+        <v>0.01005216092843058</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H25">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I25">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J25">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N25">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O25">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P25">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q25">
-        <v>0.3855014559311111</v>
+        <v>0.02024474328066666</v>
       </c>
       <c r="R25">
-        <v>3.469513103379999</v>
+        <v>0.182202689526</v>
       </c>
       <c r="S25">
-        <v>0.001419276737817726</v>
+        <v>9.552108004695565E-05</v>
       </c>
       <c r="T25">
-        <v>0.001419276737817726</v>
+        <v>9.552108004695567E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H26">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I26">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J26">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N26">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O26">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P26">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q26">
-        <v>0.159216427488</v>
+        <v>1.210518520057889</v>
       </c>
       <c r="R26">
-        <v>1.432947847392</v>
+        <v>10.894666680521</v>
       </c>
       <c r="S26">
-        <v>0.0005861772201777165</v>
+        <v>0.00571160793939019</v>
       </c>
       <c r="T26">
-        <v>0.0005861772201777165</v>
+        <v>0.00571160793939019</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H27">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I27">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J27">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>29.178763</v>
       </c>
       <c r="N27">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O27">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P27">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q27">
-        <v>1.993463909397</v>
+        <v>5.788609445246335</v>
       </c>
       <c r="R27">
-        <v>17.941175184573</v>
+        <v>52.09748500721701</v>
       </c>
       <c r="S27">
-        <v>0.007339212111281716</v>
+        <v>0.02731248396258895</v>
       </c>
       <c r="T27">
-        <v>0.007339212111281715</v>
+        <v>0.02731248396258895</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,46 +2155,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H28">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I28">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J28">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N28">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O28">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P28">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q28">
-        <v>0.026903293464</v>
+        <v>0.02909187217733334</v>
       </c>
       <c r="R28">
-        <v>0.242129641176</v>
+        <v>0.261826849596</v>
       </c>
       <c r="S28">
-        <v>9.904818255981423E-05</v>
+        <v>0.0001372646228426439</v>
       </c>
       <c r="T28">
-        <v>9.904818255981422E-05</v>
+        <v>0.0001372646228426439</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H29">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I29">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J29">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N29">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O29">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P29">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q29">
-        <v>1.480859324448</v>
+        <v>2.980298015888556</v>
       </c>
       <c r="R29">
-        <v>13.327733920032</v>
+        <v>26.822682142997</v>
       </c>
       <c r="S29">
-        <v>0.005451987687291901</v>
+        <v>0.01406198544445555</v>
       </c>
       <c r="T29">
-        <v>0.005451987687291901</v>
+        <v>0.01406198544445555</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H30">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I30">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J30">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N30">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O30">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P30">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q30">
-        <v>0.66604580241</v>
+        <v>1.049235032822889</v>
       </c>
       <c r="R30">
-        <v>5.994412221689999</v>
+        <v>9.443115295406001</v>
       </c>
       <c r="S30">
-        <v>0.002452139412543697</v>
+        <v>0.004950621609218298</v>
       </c>
       <c r="T30">
-        <v>0.002452139412543696</v>
+        <v>0.004950621609218298</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H31">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I31">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J31">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N31">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O31">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P31">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q31">
-        <v>0.028897593393</v>
+        <v>0.009970399824666668</v>
       </c>
       <c r="R31">
-        <v>0.260078340537</v>
+        <v>0.089733598422</v>
       </c>
       <c r="S31">
-        <v>0.0001063904725924802</v>
+        <v>4.704348909485283E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001063904725924802</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.266402</v>
-      </c>
-      <c r="H32">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J32">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.330485333333333</v>
-      </c>
-      <c r="N32">
-        <v>6.991456</v>
-      </c>
-      <c r="O32">
-        <v>0.03655621216383393</v>
-      </c>
-      <c r="P32">
-        <v>0.03655621216383394</v>
-      </c>
-      <c r="Q32">
-        <v>0.6208459537706668</v>
-      </c>
-      <c r="R32">
-        <v>5.587613583936001</v>
-      </c>
-      <c r="S32">
-        <v>0.00228572994056974</v>
-      </c>
-      <c r="T32">
-        <v>0.00228572994056974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.266402</v>
-      </c>
-      <c r="H33">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J33">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>29.178763</v>
-      </c>
-      <c r="N33">
-        <v>87.536289</v>
-      </c>
-      <c r="O33">
-        <v>0.4577008212193114</v>
-      </c>
-      <c r="P33">
-        <v>0.4577008212193115</v>
-      </c>
-      <c r="Q33">
-        <v>7.773280820726001</v>
-      </c>
-      <c r="R33">
-        <v>69.95952738653401</v>
-      </c>
-      <c r="S33">
-        <v>0.02861840461467047</v>
-      </c>
-      <c r="T33">
-        <v>0.02861840461467047</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.266402</v>
-      </c>
-      <c r="H34">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J34">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.3937893333333333</v>
-      </c>
-      <c r="N34">
-        <v>1.181368</v>
-      </c>
-      <c r="O34">
-        <v>0.006177016525822971</v>
-      </c>
-      <c r="P34">
-        <v>0.006177016525822972</v>
-      </c>
-      <c r="Q34">
-        <v>0.1049062659786667</v>
-      </c>
-      <c r="R34">
-        <v>0.9441563938080001</v>
-      </c>
-      <c r="S34">
-        <v>0.0003862268758368775</v>
-      </c>
-      <c r="T34">
-        <v>0.0003862268758368775</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.266402</v>
-      </c>
-      <c r="H35">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J35">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>21.67565866666667</v>
-      </c>
-      <c r="N35">
-        <v>65.026976</v>
-      </c>
-      <c r="O35">
-        <v>0.340006420841172</v>
-      </c>
-      <c r="P35">
-        <v>0.3400064208411721</v>
-      </c>
-      <c r="Q35">
-        <v>5.774438820117334</v>
-      </c>
-      <c r="R35">
-        <v>51.96994938105601</v>
-      </c>
-      <c r="S35">
-        <v>0.02125939231941242</v>
-      </c>
-      <c r="T35">
-        <v>0.02125939231941242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.266402</v>
-      </c>
-      <c r="H36">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J36">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>9.749056666666666</v>
-      </c>
-      <c r="N36">
-        <v>29.24717</v>
-      </c>
-      <c r="O36">
-        <v>0.1529246199520842</v>
-      </c>
-      <c r="P36">
-        <v>0.1529246199520842</v>
-      </c>
-      <c r="Q36">
-        <v>2.597168194113333</v>
-      </c>
-      <c r="R36">
-        <v>23.37451374702</v>
-      </c>
-      <c r="S36">
-        <v>0.009561832634852177</v>
-      </c>
-      <c r="T36">
-        <v>0.009561832634852175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.266402</v>
-      </c>
-      <c r="H37">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I37">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J37">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.4229803333333333</v>
-      </c>
-      <c r="N37">
-        <v>1.268941</v>
-      </c>
-      <c r="O37">
-        <v>0.006634909297775397</v>
-      </c>
-      <c r="P37">
-        <v>0.006634909297775398</v>
-      </c>
-      <c r="Q37">
-        <v>0.1126828067606667</v>
-      </c>
-      <c r="R37">
-        <v>1.014145260846</v>
-      </c>
-      <c r="S37">
-        <v>0.000414857282448249</v>
-      </c>
-      <c r="T37">
-        <v>0.000414857282448249</v>
+        <v>4.704348909485284E-05</v>
       </c>
     </row>
   </sheetData>
